--- a/Workshop Files/Book list 1.xlsx
+++ b/Workshop Files/Book list 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Runni\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Runni\Documents\GitHub\Intro_to_Open_Refine_Workshop\Workshop Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A68C57D-1743-4951-8A21-AEF6B4DFC666}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1D563D-AAAA-4095-AAE8-812322DE9759}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{A37401B7-B898-4E50-890A-B314B602FDBE}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="70">
   <si>
     <t>Book Title</t>
   </si>
@@ -235,6 +235,12 @@
   </si>
   <si>
     <t xml:space="preserve">Terry Prattchett </t>
+  </si>
+  <si>
+    <t xml:space="preserve">J. K. Rowling </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> J. K. Rowling</t>
   </si>
 </sst>
 </file>
@@ -596,7 +602,7 @@
   <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -627,7 +633,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>57</v>
@@ -655,7 +661,7 @@
         <v>64</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
         <v>59</v>
